--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2542.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2542.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.403455504889782</v>
+        <v>1.747665643692017</v>
       </c>
       <c r="B1">
-        <v>2.581820905858592</v>
+        <v>2.242830991744995</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.402452230453491</v>
       </c>
       <c r="D1">
-        <v>1.292682670819432</v>
+        <v>7.359123229980469</v>
       </c>
       <c r="E1">
-        <v>1.089882081460696</v>
+        <v>0.7696225643157959</v>
       </c>
     </row>
   </sheetData>
